--- a/April'21/Market Due.xlsx
+++ b/April'21/Market Due.xlsx
@@ -1027,10 +1027,10 @@
     <t>Date:30/31.03.2021</t>
   </si>
   <si>
-    <t>Date:01.04.2021(G.A Achieve)</t>
+    <t>Date:03.04.2021(G.A Achieve)</t>
   </si>
   <si>
-    <t>Till-04.10 PM</t>
+    <t>Till-03.40 PM</t>
   </si>
 </sst>
 </file>
@@ -1611,7 +1611,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -8208,8 +8208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8255,7 +8255,7 @@
       <c r="B3" s="28">
         <v>5</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="28">
         <f>B3-C3</f>
         <v>5</v>
@@ -8285,10 +8285,12 @@
       <c r="B5" s="28">
         <v>21</v>
       </c>
-      <c r="C5" s="30"/>
+      <c r="C5" s="28">
+        <v>2</v>
+      </c>
       <c r="D5" s="28">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" s="41"/>
     </row>
@@ -8299,7 +8301,7 @@
       <c r="B6" s="28">
         <v>5</v>
       </c>
-      <c r="C6" s="30"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="28">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -8329,11 +8331,11 @@
         <v>5</v>
       </c>
       <c r="C8" s="28">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" s="28">
         <f t="shared" si="0"/>
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="E8" s="37"/>
       <c r="G8" s="34"/>
@@ -8347,11 +8349,11 @@
         <v>10</v>
       </c>
       <c r="C9" s="28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D9" s="28">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E9" s="37"/>
     </row>
@@ -8362,7 +8364,7 @@
       <c r="B10" s="28">
         <v>10</v>
       </c>
-      <c r="C10" s="30"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="28">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -8376,10 +8378,12 @@
       <c r="B11" s="28">
         <v>25</v>
       </c>
-      <c r="C11" s="30"/>
+      <c r="C11" s="28">
+        <v>1</v>
+      </c>
       <c r="D11" s="28">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="37"/>
     </row>
@@ -8390,12 +8394,10 @@
       <c r="B12" s="28">
         <v>15</v>
       </c>
-      <c r="C12" s="28">
-        <v>4</v>
-      </c>
+      <c r="C12" s="28"/>
       <c r="D12" s="28">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E12" s="37"/>
     </row>
@@ -8423,11 +8425,11 @@
         <v>20</v>
       </c>
       <c r="C14" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="28">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="37"/>
     </row>
@@ -8439,11 +8441,11 @@
         <v>10</v>
       </c>
       <c r="C15" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="28">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15" s="37"/>
     </row>
@@ -8454,12 +8456,10 @@
       <c r="B16" s="28">
         <v>10</v>
       </c>
-      <c r="C16" s="28">
-        <v>6</v>
-      </c>
+      <c r="C16" s="28"/>
       <c r="D16" s="28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E16" s="41"/>
     </row>
@@ -8470,12 +8470,10 @@
       <c r="B17" s="28">
         <v>5</v>
       </c>
-      <c r="C17" s="28">
-        <v>1</v>
-      </c>
+      <c r="C17" s="28"/>
       <c r="D17" s="28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" s="41"/>
     </row>
@@ -8486,12 +8484,10 @@
       <c r="B18" s="28">
         <v>20</v>
       </c>
-      <c r="C18" s="28">
-        <v>1</v>
-      </c>
+      <c r="C18" s="28"/>
       <c r="D18" s="28">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E18" s="37"/>
     </row>
@@ -8502,10 +8498,12 @@
       <c r="B19" s="28">
         <v>15</v>
       </c>
-      <c r="C19" s="30"/>
+      <c r="C19" s="28">
+        <v>1</v>
+      </c>
       <c r="D19" s="28">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19" s="41"/>
     </row>
@@ -8516,12 +8514,10 @@
       <c r="B20" s="28">
         <v>30</v>
       </c>
-      <c r="C20" s="28">
-        <v>1</v>
-      </c>
+      <c r="C20" s="28"/>
       <c r="D20" s="28">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" s="41"/>
     </row>
@@ -8533,11 +8529,11 @@
         <v>20</v>
       </c>
       <c r="C21" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="28">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" s="37"/>
     </row>
@@ -8548,12 +8544,10 @@
       <c r="B22" s="33">
         <v>2</v>
       </c>
-      <c r="C22" s="28">
-        <v>1</v>
-      </c>
+      <c r="C22" s="28"/>
       <c r="D22" s="28">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="28"/>
     </row>
@@ -8564,10 +8558,12 @@
       <c r="B23" s="28">
         <v>5</v>
       </c>
-      <c r="C23" s="30"/>
+      <c r="C23" s="28">
+        <v>1</v>
+      </c>
       <c r="D23" s="28">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23" s="37"/>
     </row>
@@ -8581,11 +8577,11 @@
       </c>
       <c r="C24" s="39">
         <f>SUM(C3:C23)</f>
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D24" s="39">
         <f>SUM(D3:D23)</f>
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="E24" s="40"/>
     </row>
